--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuvaes-my.sharepoint.com/personal/rubenfrancisco_serrano_alumnos_uva_es/Documents/Teleco/Master/Primer cuatrimestre/TP/SE/04 - Análisis consumo/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D2F04E46CFB4ACB3E20F29557D0D8683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B5E346-8786-4347-BA2A-6510212312DA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumo de energía" sheetId="1" r:id="rId1"/>
+    <sheet name="Disipación de potencia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,8 +25,73 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+  <si>
+    <t>Análisis eléctrico</t>
+  </si>
+  <si>
+    <t>Componentes a 5V</t>
+  </si>
+  <si>
+    <t>Componentes a 3V3</t>
+  </si>
+  <si>
+    <t>Componentes a 1V2</t>
+  </si>
+  <si>
+    <t>Componentes a 3V7</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Consumo (mA)</t>
+  </si>
+  <si>
+    <t>Condiciones</t>
+  </si>
+  <si>
+    <t>Interruptor Alimentación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cargador batería </t>
+  </si>
+  <si>
+    <t>Placa</t>
+  </si>
+  <si>
+    <t>Board 0</t>
+  </si>
+  <si>
+    <t>Conector batería</t>
+  </si>
+  <si>
+    <t>placa</t>
+  </si>
+  <si>
+    <t>Regulador lineal ajustable</t>
+  </si>
+  <si>
+    <t>USB Mini B</t>
+  </si>
+  <si>
+    <t>Puente USB-Serie</t>
+  </si>
+  <si>
+    <t>LED rojo</t>
+  </si>
+  <si>
+    <t>LED verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -29,12 +101,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +133,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,12 +426,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:D26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD9430D-8F46-4B9F-A350-3791495ED648}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuvaes-my.sharepoint.com/personal/rubenfrancisco_serrano_alumnos_uva_es/Documents/Teleco/Master/Primer cuatrimestre/TP/SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="97" documentId="11_AD4D2F04E46CFB4ACB3E20F29557D0D8683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3B5E346-8786-4347-BA2A-6510212312DA}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D2F04E46CFB4ACB3E20F29557D0D8683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899A7FB2-5B9D-48EA-AB28-6373135CB052}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Análisis eléctrico</t>
   </si>
@@ -86,6 +86,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FPGA ICE</t>
+  </si>
+  <si>
+    <t>Memoria NORFlash 32Mb</t>
+  </si>
+  <si>
+    <t>Board 1</t>
   </si>
 </sst>
 </file>
@@ -135,14 +144,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -427,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -442,94 +451,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
@@ -540,62 +549,62 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -606,122 +615,164 @@
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3" t="s">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3" t="s">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="A25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -729,7 +780,7 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumnosuvaes-my.sharepoint.com/personal/rubenfrancisco_serrano_alumnos_uva_es/Documents/Teleco/Master/Primer cuatrimestre/TP/SE/04 - Análisis consumo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="11_AD4D2F04E46CFB4ACB3E20F29557D0D8683EDF1F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{899A7FB2-5B9D-48EA-AB28-6373135CB052}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A425A-957F-634B-B504-C9098BC5B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17660" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consumo de energía" sheetId="1" r:id="rId1"/>
+    <sheet name="Consumo de energía PCB0" sheetId="1" r:id="rId1"/>
     <sheet name="Disipación de potencia" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
-  <si>
-    <t>Análisis eléctrico</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -37,9 +34,6 @@
     <t>Componentes a 3V3</t>
   </si>
   <si>
-    <t>Componentes a 1V2</t>
-  </si>
-  <si>
     <t>Componentes a 3V7</t>
   </si>
   <si>
@@ -52,49 +46,67 @@
     <t>Condiciones</t>
   </si>
   <si>
-    <t>Interruptor Alimentación</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cargador batería </t>
-  </si>
-  <si>
-    <t>Placa</t>
-  </si>
-  <si>
     <t>Board 0</t>
   </si>
   <si>
-    <t>Conector batería</t>
-  </si>
-  <si>
-    <t>placa</t>
-  </si>
-  <si>
-    <t>Regulador lineal ajustable</t>
-  </si>
-  <si>
-    <t>USB Mini B</t>
-  </si>
-  <si>
-    <t>Puente USB-Serie</t>
-  </si>
-  <si>
     <t>LED rojo</t>
   </si>
   <si>
     <t>LED verde</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>FPGA ICE</t>
-  </si>
-  <si>
-    <t>Memoria NORFlash 32Mb</t>
-  </si>
-  <si>
-    <t>Board 1</t>
+    <t>Ubicación</t>
+  </si>
+  <si>
+    <t>Quiescent current (mA)</t>
+  </si>
+  <si>
+    <t>Análisis Térmico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistencia térmica </t>
+  </si>
+  <si>
+    <t>Temperatura</t>
+  </si>
+  <si>
+    <t>Análisis Eléctrico</t>
+  </si>
+  <si>
+    <t>Puente USB-Serie CY7C65213-28PVXI</t>
+  </si>
+  <si>
+    <t>Regulador de tension MCP1725</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>máx 500 mA</t>
+  </si>
+  <si>
+    <t>Cargador Bateria MCP73831T-2ACIOT</t>
+  </si>
+  <si>
+    <t>Regulador de tension MCP1725 (3V3)</t>
+  </si>
+  <si>
+    <t>Potencia (mW)</t>
+  </si>
+  <si>
+    <t>Theta(JA) = 163º/W</t>
+  </si>
+  <si>
+    <t>0,132682 ºC + Ta</t>
+  </si>
+  <si>
+    <t>Página 5. Datasheet</t>
+  </si>
+  <si>
+    <t>Página 7. Datasheet</t>
+  </si>
+  <si>
+    <t>Bateria YOBLP9225431S3</t>
   </si>
 </sst>
 </file>
@@ -436,351 +448,392 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
-    <col min="3" max="3" width="30.5703125" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.22</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>21</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.81399999999999995</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -792,7 +845,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839A425A-957F-634B-B504-C9098BC5B820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA588D-DD5A-1E40-BB1F-D12D97D4F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17660" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo de energía PCB0" sheetId="1" r:id="rId1"/>
     <sheet name="Disipación de potencia" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -46,9 +57,6 @@
     <t>Condiciones</t>
   </si>
   <si>
-    <t>Board 0</t>
-  </si>
-  <si>
     <t>LED rojo</t>
   </si>
   <si>
@@ -94,9 +102,6 @@
     <t>Potencia (mW)</t>
   </si>
   <si>
-    <t>Theta(JA) = 163º/W</t>
-  </si>
-  <si>
     <t>0,132682 ºC + Ta</t>
   </si>
   <si>
@@ -107,6 +112,33 @@
   </si>
   <si>
     <t>Bateria YOBLP9225431S3</t>
+  </si>
+  <si>
+    <t>max 18 mA</t>
+  </si>
+  <si>
+    <t>Página 9. Datasheet</t>
+  </si>
+  <si>
+    <t>a 25ºC</t>
+  </si>
+  <si>
+    <t>Página 2 Datasheet</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>Bateria cargada por completo</t>
+  </si>
+  <si>
+    <t>Página 3. Datasheet</t>
+  </si>
+  <si>
+    <t>Theta(JA) = 163ºC/W</t>
+  </si>
+  <si>
+    <t>230ºC/W</t>
   </si>
 </sst>
 </file>
@@ -448,10 +480,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -464,7 +496,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -495,24 +527,30 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1">
+        <v>113</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="E5" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -523,15 +561,11 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -548,125 +582,144 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="A10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.22</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="A16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.01</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="B19" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
@@ -711,93 +764,131 @@
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="B31" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B32" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -820,20 +911,13 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="A27:E28"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA588D-DD5A-1E40-BB1F-D12D97D4F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB3D4B0-6857-48FF-A1D5-70887D757FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23895" yWindow="4350" windowWidth="28800" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Consumo de energía PCB0" sheetId="1" r:id="rId1"/>
-    <sheet name="Disipación de potencia" sheetId="2" r:id="rId2"/>
+    <sheet name="Consumo de energía PCB1" sheetId="3" r:id="rId2"/>
+    <sheet name="Disipación de potencia" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -139,6 +140,39 @@
   </si>
   <si>
     <t>230ºC/W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria NOR Flash 32 Mbit IS25LP032D-JNLE </t>
+  </si>
+  <si>
+    <t>12 (Active Read Current)</t>
+  </si>
+  <si>
+    <t>Componentes a 1V2</t>
+  </si>
+  <si>
+    <t>Página 99. Datasheet</t>
+  </si>
+  <si>
+    <t>FPGA ICE40HX4K-TQ144</t>
+  </si>
+  <si>
+    <t>Diodo 1N4448HWS</t>
+  </si>
+  <si>
+    <t>Resistencia térmica (ºC/W)</t>
+  </si>
+  <si>
+    <t>Temperatura (ºC)</t>
+  </si>
+  <si>
+    <t>-65 a 150</t>
+  </si>
+  <si>
+    <t>Página 1. Datasheet</t>
+  </si>
+  <si>
+    <t>-40 a 125</t>
   </si>
 </sst>
 </file>
@@ -186,7 +220,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,6 +232,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -482,19 +523,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1"/>
-    <col min="2" max="3" width="27.83203125" customWidth="1"/>
-    <col min="4" max="4" width="30.5" customWidth="1"/>
-    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -503,14 +544,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +560,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -536,7 +577,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -553,35 +594,35 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -590,7 +631,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -607,7 +648,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -624,7 +665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -633,7 +674,7 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -647,14 +688,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>1</v>
       </c>
@@ -663,7 +704,7 @@
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>3</v>
       </c>
@@ -680,7 +721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -697,7 +738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -714,56 +755,56 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
@@ -772,14 +813,14 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
@@ -796,7 +837,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -813,7 +854,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>19</v>
       </c>
@@ -830,7 +871,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>24</v>
       </c>
@@ -839,7 +880,7 @@
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
@@ -856,7 +897,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,7 +914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>7</v>
       </c>
@@ -890,21 +931,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -924,12 +965,330 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DDC9D9-1F46-47B6-93CC-87CC0629DA96}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="28.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="1">
+        <v>500</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1">
+        <v>200</v>
+      </c>
+      <c r="C25" s="1">
+        <v>625</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C26" s="1">
+        <v>163</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A22:E23"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A15:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD9430D-8F46-4B9F-A350-3791495ED648}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FA588D-DD5A-1E40-BB1F-D12D97D4F74F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3984563F-DFA6-CB4F-B0AD-CC19182A3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Puente USB-Serie CY7C65213-28PVXI</t>
   </si>
   <si>
-    <t>Regulador de tension MCP1725</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>Cargador Bateria MCP73831T-2ACIOT</t>
   </si>
   <si>
-    <t>Regulador de tension MCP1725 (3V3)</t>
-  </si>
-  <si>
-    <t>Potencia (mW)</t>
-  </si>
-  <si>
     <t>0,132682 ºC + Ta</t>
   </si>
   <si>
@@ -111,9 +102,6 @@
     <t>Página 7. Datasheet</t>
   </si>
   <si>
-    <t>Bateria YOBLP9225431S3</t>
-  </si>
-  <si>
     <t>max 18 mA</t>
   </si>
   <si>
@@ -126,12 +114,6 @@
     <t>Página 2 Datasheet</t>
   </si>
   <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>Bateria cargada por completo</t>
-  </si>
-  <si>
     <t>Página 3. Datasheet</t>
   </si>
   <si>
@@ -139,16 +121,53 @@
   </si>
   <si>
     <t>230ºC/W</t>
+  </si>
+  <si>
+    <t>Potencia (mW) = I * V</t>
+  </si>
+  <si>
+    <t>62ºC/W</t>
+  </si>
+  <si>
+    <t>Página 24. Datasheet</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>THJ: Package 28pin SSOP</t>
+  </si>
+  <si>
+    <t>Regulador de tension MCP1725 (3V7)</t>
+  </si>
+  <si>
+    <t>En el regulador no hay consumo de corriente, unicamente hay corriente quiescente, que nos situamos en el peor caso.</t>
+  </si>
+  <si>
+    <t>Cargando bateria</t>
+  </si>
+  <si>
+    <t>Alimentando el datalogger con la batería no existe este consumo, estamos en situación máxima, la típica es 0,51mA. Si la carga está completa tenemos 0,053 mA de típica y 0,52 mA de máxima.</t>
+  </si>
+  <si>
+    <t>Página 2. Datasheet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -186,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -199,6 +218,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -215,6 +240,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -480,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -492,9 +521,10 @@
     <col min="2" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="82.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -503,14 +533,14 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +549,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -535,53 +565,69 @@
       <c r="E4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>2</v>
       </c>
@@ -590,7 +636,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -607,288 +653,286 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.22</v>
-      </c>
-      <c r="D12" s="1" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="1">
-        <v>0.01</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1">
-        <v>0.01</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="5">
+        <v>5.55</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C31" s="1" t="s">
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="1">
+        <v>65</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>16</v>
+        <v>6</v>
+      </c>
+      <c r="B33" s="1">
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
+        <v>7</v>
+      </c>
+      <c r="B34" s="1">
+        <v>75</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
@@ -904,20 +948,13 @@
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="A26:E27"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3984563F-DFA6-CB4F-B0AD-CC19182A3CEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864DBC8-6239-E945-A309-EDB8CC8473A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Consumo de energía PCB0" sheetId="1" r:id="rId1"/>
-    <sheet name="Disipación de potencia" sheetId="2" r:id="rId2"/>
+    <sheet name="Análisis PCB0" sheetId="1" r:id="rId1"/>
+    <sheet name="Análisis PCB1" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Análisis PCB0'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$28</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -151,13 +155,37 @@
   </si>
   <si>
     <t>Página 2. Datasheet</t>
+  </si>
+  <si>
+    <t>Microcontrolador ARM LPC1112FD20102/52</t>
+  </si>
+  <si>
+    <t>Página 58. Datasheet</t>
+  </si>
+  <si>
+    <t>por cada pin de alimentación (hay 1)</t>
+  </si>
+  <si>
+    <t>Regulador de tension MCP1725</t>
+  </si>
+  <si>
+    <t>Bateria YOBLP9225431S3</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>Bateria cargada por completo</t>
+  </si>
+  <si>
+    <t>Regulador de tension MCP1725 (3V3)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,15 +193,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,13 +203,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -205,26 +238,49 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -240,10 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,10 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F37"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="140" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="F4" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -521,88 +576,92 @@
     <col min="2" max="3" width="27.83203125" customWidth="1"/>
     <col min="4" max="4" width="30.5" customWidth="1"/>
     <col min="5" max="5" width="26.83203125" customWidth="1"/>
-    <col min="6" max="6" width="82.33203125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="7">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="7">
         <v>0.22</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -612,46 +671,521 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="A8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="7">
+        <v>30</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="7">
+        <v>100</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7">
+        <v>5.55</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="7">
+        <v>65</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="7">
+        <v>75</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="7">
+        <v>75</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="7">
+        <v>330</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="8"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16B9CCF7-C89B-5441-8AF0-CF43F2DFCDA5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" customWidth="1"/>
+    <col min="2" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>113</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="A9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="A10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="15"/>
+      <c r="D11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -659,93 +1193,89 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="A15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="7">
+        <v>30</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A16" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="7">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <v>30</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -753,221 +1283,176 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="A20" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="A24" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="7">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="5">
-        <v>5.55</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1">
-        <v>65</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="1">
-        <v>75</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="1">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A26:E27"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A20:F21"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD9430D-8F46-4B9F-A350-3791495ED648}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -8,17 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9864DBC8-6239-E945-A309-EDB8CC8473A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A622FBC-3D90-6845-896A-9B06EBE8F2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis PCB0" sheetId="1" r:id="rId1"/>
     <sheet name="Análisis PCB1" sheetId="3" r:id="rId2"/>
+    <sheet name="Análisis PCB2" sheetId="5" r:id="rId3"/>
+    <sheet name="Análisis PCB3" sheetId="7" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Análisis PCB0'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Análisis PCB2'!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$26</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="59">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -179,13 +183,52 @@
   </si>
   <si>
     <t>Regulador de tension MCP1725 (3V3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor H/T/P BME680_MODULE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor H/T/P MS8607-02BA01 </t>
+  </si>
+  <si>
+    <t>El consumo de corriente corresponde al pico máximo con el que se va a encontrar el sensor, que durante la medición de Temperatura o de Presión</t>
+  </si>
+  <si>
+    <t>Página 10. Datasheet</t>
+  </si>
+  <si>
+    <t>GPS TEL09132</t>
+  </si>
+  <si>
+    <t>Regulador Conmutado Síncrono XC9141B50DMR-G</t>
+  </si>
+  <si>
+    <t>La corriente quiescente se encuentra en la página 7, el consumo en la página 9.</t>
+  </si>
+  <si>
+    <t>Convertidor ADC con interfaz SPI MCP3004-I_SL</t>
+  </si>
+  <si>
+    <t>Theta(JA) = 108ºC/W</t>
+  </si>
+  <si>
+    <t>Página 4. Datasheet</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>Sensor de Polvo GP2Y1010AU0F</t>
+  </si>
+  <si>
+    <t>Sensor de Gases SEN0134</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,8 +236,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +275,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEDEDED"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,6 +326,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,7 +337,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,7 +632,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="F4" sqref="A3:F4"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -580,32 +645,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -674,13 +739,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -732,13 +797,13 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -840,22 +905,22 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="13"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="13"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1026,8 +1091,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="108" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,32 +1105,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="13"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1114,13 +1179,13 @@
       <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1178,7 +1243,7 @@
       <c r="B11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1196,13 +1261,13 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1286,22 +1351,22 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1455,4 +1520,754 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD737B5D-5B21-A049-AB2A-AE76E468416D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1.25</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="7">
+        <v>25</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="17">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0.04</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="7">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="7">
+        <v>4.125</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="7">
+        <v>82.5</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="7">
+        <v>3.43</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7">
+        <v>100</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA524B94-ECEA-7345-9FD9-1047547A1980}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="39.6640625" customWidth="1"/>
+    <col min="2" max="3" width="27.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="26.83203125" customWidth="1"/>
+    <col min="6" max="6" width="54" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A18:F19"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A622FBC-3D90-6845-896A-9B06EBE8F2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A1D00-14C2-AE45-9FEB-8C6DA55C71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis PCB0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Análisis PCB0'!$A$1:$F$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Análisis PCB2'!$A$1:$F$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$26</definedName>
   </definedNames>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="69">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -170,21 +170,6 @@
     <t>por cada pin de alimentación (hay 1)</t>
   </si>
   <si>
-    <t>Regulador de tension MCP1725</t>
-  </si>
-  <si>
-    <t>Bateria YOBLP9225431S3</t>
-  </si>
-  <si>
-    <t>0.053</t>
-  </si>
-  <si>
-    <t>Bateria cargada por completo</t>
-  </si>
-  <si>
-    <t>Regulador de tension MCP1725 (3V3)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sensor H/T/P BME680_MODULE </t>
   </si>
   <si>
@@ -222,6 +207,51 @@
   </si>
   <si>
     <t>Sensor de Gases SEN0134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Memoria NOR Flash IS25LP032D-JNLE </t>
+  </si>
+  <si>
+    <t>Página 99. Datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulador lineal MCP1725-ADJ E/SN </t>
+  </si>
+  <si>
+    <t>a 25 ºC</t>
+  </si>
+  <si>
+    <t>FPGA iCE40 LP/HX</t>
+  </si>
+  <si>
+    <t>Página 19. Datasheet</t>
+  </si>
+  <si>
+    <t>Theta(JA)=163 ºC/W</t>
+  </si>
+  <si>
+    <t>0,132682ºC + Ta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diodo 1N4448HSW-7-F </t>
+  </si>
+  <si>
+    <t>Theta(JA)=625 ºC/W</t>
+  </si>
+  <si>
+    <t>Página 1. Datasheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oscilador integrado MCSJK-3N-16.00-3.3-50-B </t>
+  </si>
+  <si>
+    <t>LED KA-3022SRC-4.5SF (x4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 x 4 = 120 </t>
+  </si>
+  <si>
+    <t>75 x 4 = 300</t>
   </si>
 </sst>
 </file>
@@ -294,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -326,7 +356,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,15 +373,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -632,7 +661,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -645,32 +674,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -739,13 +768,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -797,13 +826,13 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -905,22 +934,22 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="14"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="14"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1089,10 +1118,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1105,32 +1134,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1148,109 +1177,121 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="B5" s="7">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2"/>
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="7">
+        <v>500</v>
+      </c>
+      <c r="C6" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="7">
+        <v>60.6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7">
-        <v>0.22</v>
+        <v>65</v>
+      </c>
+      <c r="B9" s="7">
+        <v>15</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
       <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="9"/>
+      <c r="D10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="9"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
@@ -1261,261 +1302,183 @@
       <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="7">
-        <v>30</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="8"/>
-    </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="7">
+        <v>82.5</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="7">
+        <v>1650</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
+      <c r="A19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>73.59</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
+      <c r="A20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="7">
+        <v>200</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-    </row>
-    <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="7">
+        <v>49.5</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="8"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="7">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F31" s="2"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="3">
     <mergeCell ref="A1:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A20:F21"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A14:F15"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
@@ -1543,31 +1506,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1592,7 +1555,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>15</v>
@@ -1610,7 +1573,7 @@
     </row>
     <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B6" s="7">
         <v>1.25</v>
@@ -1624,13 +1587,13 @@
       <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="16" t="s">
-        <v>48</v>
+      <c r="F6" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B7" s="7">
         <v>25</v>
@@ -1642,15 +1605,15 @@
         <v>15</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="17">
+        <v>46</v>
+      </c>
+      <c r="B8" s="12">
         <v>1042</v>
       </c>
       <c r="C8" s="7">
@@ -1663,12 +1626,12 @@
         <v>22</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B9" s="7">
         <v>0.55000000000000004</v>
@@ -1680,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F9" s="8"/>
     </row>
@@ -1693,13 +1656,13 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1724,7 +1687,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="7">
         <v>20</v>
@@ -1736,13 +1699,13 @@
         <v>23</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>15</v>
@@ -1783,22 +1746,22 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1822,7 +1785,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>15</v>
@@ -1840,7 +1803,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B22" s="7">
         <v>4.125</v>
@@ -1858,7 +1821,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="7">
         <v>82.5</v>
@@ -1870,13 +1833,13 @@
         <v>15</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B24" s="7">
         <v>3.43</v>
@@ -1887,32 +1850,32 @@
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="18" t="s">
+      <c r="E24" s="13" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B26" s="7">
         <v>100</v>
@@ -1924,13 +1887,13 @@
         <v>15</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>15</v>
@@ -1976,7 +1939,7 @@
   </sheetPr>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
+    <sheetView zoomScaleNormal="108" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
@@ -1990,31 +1953,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="16"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="14"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2051,7 +2014,7 @@
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="16"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
@@ -2063,7 +2026,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
-      <c r="B8" s="17"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
@@ -2086,13 +2049,13 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -2156,22 +2119,22 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -2222,7 +2185,7 @@
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
-      <c r="E24" s="18"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A1D00-14C2-AE45-9FEB-8C6DA55C71E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D50FF7D-866B-F744-A273-2614FB42BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Análisis PCB0" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Análisis PCB0'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Análisis PCB2'!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="78">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -252,6 +252,33 @@
   </si>
   <si>
     <t>75 x 4 = 300</t>
+  </si>
+  <si>
+    <t>Transceptor radio LoRa LAMBDA62-8D</t>
+  </si>
+  <si>
+    <t>A frecuencia 868 MHz</t>
+  </si>
+  <si>
+    <t>Corresponde con el peor caso entre todos los que hay, es decir, cuando la potencia de salida son +22dBm.</t>
+  </si>
+  <si>
+    <t>A frecuencia 868 MHz y potencia de salida +22dBm</t>
+  </si>
+  <si>
+    <t>Transceptor WiFi_BT_LE (Plan B)</t>
+  </si>
+  <si>
+    <t>Corresponde con el peor caso, que será transmitiendo en 802.11b con modulación CCK a una tasa de 1Mbps. Si modulasemos con ODFM o MCS7 el consumo sería menor.</t>
+  </si>
+  <si>
+    <t>En 802.11b con modulación CCK y tasa de 1Mbps.</t>
+  </si>
+  <si>
+    <t>Transceptor LoRa LILYGO T-Higrow Shield</t>
+  </si>
+  <si>
+    <t>Carece de Datasheet de donde extraer la información</t>
   </si>
 </sst>
 </file>
@@ -324,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -374,6 +401,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,8 +1156,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="A1:F22"/>
+    <sheetView zoomScale="139" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1937,10 +1973,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1960,7 +1996,7 @@
       <c r="C1" s="17"/>
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
@@ -1968,7 +2004,7 @@
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
@@ -1978,7 +2014,7 @@
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="3"/>
+      <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2000,107 +2036,179 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="7">
+        <v>118</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="7">
+        <v>350</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2"/>
+      <c r="A10" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="3"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="A13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="7">
+        <v>389.4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1155</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
@@ -2110,125 +2218,14 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A10:F11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/04 - Análisis consumo/AnalisisConsumo.xlsx
+++ b/04 - Análisis consumo/AnalisisConsumo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oscarmartincasares/Desktop/Ing. Telecomunicaciones/Master/1er Cuatrimestre/TALLER PROYECTOS/SE/TP1SE/04 - Análisis consumo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D50FF7D-866B-F744-A273-2614FB42BDC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE4A4A6-5919-284E-A28D-CBA34C901DDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Análisis PCB0'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Análisis PCB1'!$A$1:$F$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Análisis PCB2'!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Análisis PCB3'!$A$1:$F$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="79">
   <si>
     <t>Componentes a 5V</t>
   </si>
@@ -279,13 +279,16 @@
   </si>
   <si>
     <t>Carece de Datasheet de donde extraer la información</t>
+  </si>
+  <si>
+    <t>Consumo total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,8 +303,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri (Cuerpo)"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -338,6 +353,12 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -351,7 +372,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,11 +407,14 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,10 +429,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -696,8 +732,8 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="F28" sqref="A1:F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -710,32 +746,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -804,13 +840,13 @@
       <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -862,13 +898,13 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -954,12 +990,17 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
+      <c r="A18" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="20">
+        <f xml:space="preserve"> B5+B10+B14+B15+B16</f>
+        <v>174.5</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
@@ -970,22 +1011,22 @@
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="16"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -1156,8 +1197,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView zoomScale="111" workbookViewId="0">
+      <selection activeCell="F22" sqref="A1:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1170,31 +1211,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1330,12 +1371,17 @@
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
+      <c r="A12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="20">
+        <f>B5+B6+B7+B8+B9+120</f>
+        <v>742.9</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
@@ -1346,22 +1392,22 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -1529,7 +1575,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F27" sqref="A1:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1542,31 +1588,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="16"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="16"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1649,8 +1695,8 @@
       <c r="A8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B8" s="12">
-        <v>1042</v>
+      <c r="B8" s="7">
+        <v>1.04</v>
       </c>
       <c r="C8" s="7">
         <v>0.04</v>
@@ -1692,13 +1738,13 @@
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -1766,12 +1812,17 @@
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="A16" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="20">
+        <f>B6+B7+B8+B9+B13</f>
+        <v>47.84</v>
+      </c>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
@@ -1782,22 +1833,22 @@
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
@@ -1886,7 +1937,7 @@
       <c r="D24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E24" s="12" t="s">
         <v>22</v>
       </c>
       <c r="F24" s="8"/>
@@ -1964,7 +2015,7 @@
     <mergeCell ref="A11:E11"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -1973,10 +2024,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1989,32 +2040,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="19"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2102,132 +2153,144 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="20">
+        <v>468</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="19"/>
+    </row>
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B14" s="7">
         <v>389.4</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="7" t="s">
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="7">
-        <v>1155</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1155</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="11" t="s">
+      <c r="B16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A10:F11"/>
+    <mergeCell ref="A11:F12"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>